--- a/src/assets/mx-2-example.xlsx
+++ b/src/assets/mx-2-example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artursirbiladze/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artursirbiladze/PhpstormProjects/rosnova-warehouse/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8ADE6E-8557-7F4D-908B-F138A3A10A6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D4FA83-1979-7E4E-8FC9-B7DF70B780B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15440" tabRatio="402" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -686,10 +686,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -751,62 +788,25 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1196,37 +1196,37 @@
         <v>5</v>
       </c>
       <c r="P1" s="5"/>
-      <c r="V1" s="54" t="s">
+      <c r="V1" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
     </row>
     <row r="2" spans="1:26" s="14" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="55" t="s">
+      <c r="V2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
     </row>
     <row r="3" spans="1:26" s="14" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
-      <c r="V3" s="56" t="s">
+      <c r="V3" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
     </row>
     <row r="4" spans="1:26" s="15" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
@@ -1266,10 +1266,10 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="1"/>
       <c r="X5" s="6"/>
-      <c r="Y5" s="57" t="s">
+      <c r="Y5" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="Z5" s="58"/>
+      <c r="Z5" s="71"/>
     </row>
     <row r="6" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
@@ -1291,130 +1291,130 @@
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
-      <c r="U6" s="50" t="s">
+      <c r="U6" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="59" t="s">
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="Z6" s="60"/>
+      <c r="Z6" s="73"/>
     </row>
     <row r="7" spans="1:26" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="76"/>
       <c r="W7" s="8"/>
       <c r="X7" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="62"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="75"/>
     </row>
     <row r="8" spans="1:26" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
       <c r="W8" s="18"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="62"/>
+      <c r="X8" s="79"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="75"/>
     </row>
     <row r="9" spans="1:26" s="3" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
       <c r="W9" s="8"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="62"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="75"/>
     </row>
     <row r="10" spans="1:26" s="3" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="H10" s="48"/>
-      <c r="I10" s="67" t="s">
+      <c r="I10" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
       <c r="P10" s="29"/>
       <c r="Q10" s="29"/>
       <c r="R10" s="29"/>
       <c r="S10" s="29"/>
       <c r="T10" s="29"/>
-      <c r="U10" s="79" t="s">
+      <c r="U10" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="79"/>
-      <c r="W10" s="79"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="62"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="75"/>
     </row>
     <row r="11" spans="1:26" s="3" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8"/>
@@ -1425,24 +1425,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="30"/>
       <c r="R11" s="30"/>
       <c r="S11" s="30"/>
       <c r="T11" s="30"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="62"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="75"/>
     </row>
     <row r="12" spans="1:26" s="3" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8"/>
@@ -1469,8 +1469,8 @@
       <c r="V12" s="10"/>
       <c r="W12" s="10"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="70"/>
+      <c r="Y12" s="82"/>
+      <c r="Z12" s="83"/>
     </row>
     <row r="13" spans="1:26" s="3" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
@@ -1491,14 +1491,14 @@
       <c r="P13" s="8"/>
       <c r="S13" s="31"/>
       <c r="T13" s="31"/>
-      <c r="U13" s="52" t="s">
+      <c r="U13" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="72"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="85"/>
     </row>
     <row r="14" spans="1:26" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
@@ -1522,85 +1522,85 @@
       <c r="Z14" s="9"/>
     </row>
     <row r="15" spans="1:26" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.3">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="84"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
       <c r="Z15" s="19"/>
     </row>
     <row r="16" spans="1:26" s="42" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="85"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="85"/>
-      <c r="W16" s="85"/>
-      <c r="X16" s="85"/>
-      <c r="Y16" s="85"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
       <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:26" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="83"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="46"/>
-      <c r="F18" s="82" t="s">
+      <c r="F18" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="82"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
       <c r="J18" s="45"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
       <c r="N18" s="24" t="s">
         <v>8</v>
       </c>
@@ -1614,8 +1614,8 @@
       <c r="T18" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="U18" s="76"/>
-      <c r="V18" s="76"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
       <c r="W18" s="45"/>
       <c r="X18" s="46"/>
       <c r="Y18" s="23" t="s">
@@ -1624,33 +1624,33 @@
     </row>
     <row r="19" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
       <c r="L20" s="27"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="75"/>
-      <c r="X20" s="75"/>
-      <c r="Y20" s="75"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60"/>
+      <c r="W20" s="60"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="60"/>
       <c r="Z20" s="27"/>
     </row>
     <row r="21" spans="1:26" s="43" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -1658,44 +1658,31 @@
       <c r="D21" s="44"/>
       <c r="E21" s="44"/>
       <c r="F21" s="44"/>
-      <c r="I21" s="73" t="s">
+      <c r="I21" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
       <c r="L21" s="47"/>
-      <c r="M21" s="78" t="s">
+      <c r="M21" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="78"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="78"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="78"/>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="78"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
       <c r="Z21" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="U10:X11"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A15:Y15"/>
-    <mergeCell ref="A16:Y16"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="M20:Y20"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="M21:Y21"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="H18:I18"/>
     <mergeCell ref="U6:X6"/>
     <mergeCell ref="U13:X13"/>
     <mergeCell ref="V1:Z1"/>
@@ -1712,6 +1699,19 @@
     <mergeCell ref="Y10:Z11"/>
     <mergeCell ref="I10:N11"/>
     <mergeCell ref="Y12:Z13"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="M20:Y20"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="M21:Y21"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="U10:X11"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A15:Y15"/>
+    <mergeCell ref="A16:Y16"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.78740157480314965" top="0.78740157480314965" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1757,127 +1757,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="35" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="87" t="s">
+      <c r="J1" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="88"/>
-      <c r="L1" s="86" t="s">
+      <c r="K1" s="91"/>
+      <c r="L1" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
     </row>
     <row r="2" spans="1:21" s="35" customFormat="1" ht="13" x14ac:dyDescent="0.2">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="89" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="89" t="s">
+      <c r="L2" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="86" t="s">
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="89" t="s">
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
     </row>
     <row r="3" spans="1:21" s="35" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="89" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="89" t="s">
+      <c r="M3" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="89"/>
-      <c r="O3" s="86" t="s">
+      <c r="N3" s="86"/>
+      <c r="O3" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="89" t="s">
+      <c r="P3" s="87"/>
+      <c r="Q3" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="89"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
     </row>
     <row r="4" spans="1:21" s="35" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="89"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="86"/>
       <c r="M4" s="33" t="s">
         <v>2</v>
       </c>
@@ -1973,6 +1973,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="S2:U3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="A1:A4"/>
@@ -1981,18 +1993,6 @@
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="E1:E4"/>
     <mergeCell ref="F1:F4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="S2:U3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="L3:L4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.51181102362204722" right="0.39370078740157483" top="0.59055118110236227" bottom="0.78740157480314965" header="0.19685039370078741" footer="0.51181102362204722"/>
